--- a/server/utils/osrs_content_manager.xlsx
+++ b/server/utils/osrs_content_manager.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="ZjG6BjF4szO7WJnOhcqLCpkVievkUvLHonY0ELMuJnU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="4loyb32DPhQIUkx8ASLlyZmeyJ/eM84z2QX0vS94zhU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="911">
   <si>
     <t>ID</t>
   </si>
@@ -785,21 +785,36 @@
     <t>Sources</t>
   </si>
   <si>
+    <t>dragonboneNecklace</t>
+  </si>
+  <si>
+    <t>Dragonbone Necklace</t>
+  </si>
+  <si>
+    <t>boss-drops</t>
+  </si>
+  <si>
+    <t>bosses:vorkath</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>jarOfDecay</t>
+  </si>
+  <si>
+    <t>Jar of Decay</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
     <t>vorkathHead</t>
   </si>
   <si>
     <t>Vorkath's Head</t>
   </si>
   <si>
-    <t>boss-drops</t>
-  </si>
-  <si>
-    <t>bosses:vorkath</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>vorki</t>
   </si>
   <si>
@@ -869,9 +884,6 @@
     <t>Jar of Swamp</t>
   </si>
   <si>
-    <t>jar</t>
-  </si>
-  <si>
     <t>abyssalWhip</t>
   </si>
   <si>
@@ -893,7 +905,7 @@
     <t>abyssalBludgeon</t>
   </si>
   <si>
-    <t>Abyssal Bludgeon</t>
+    <t>Abyssal Bludgeon Piece</t>
   </si>
   <si>
     <t>abyssalOrphan</t>
@@ -974,15 +986,21 @@
     <t>Jar of Souls</t>
   </si>
   <si>
+    <t>hydraTail</t>
+  </si>
+  <si>
+    <t>Hydra's Tail</t>
+  </si>
+  <si>
+    <t>bosses:alchemicalHydra</t>
+  </si>
+  <si>
     <t>hydraLeather</t>
   </si>
   <si>
     <t>Hydra Leather</t>
   </si>
   <si>
-    <t>bosses:alchemicalHydra</t>
-  </si>
-  <si>
     <t>hydrasClaw</t>
   </si>
   <si>
@@ -1760,15 +1778,30 @@
     <t>Noxious Pommel</t>
   </si>
   <si>
+    <t>chromiumIngot4</t>
+  </si>
+  <si>
+    <t>Chromium Ingot</t>
+  </si>
+  <si>
+    <t>bosses:leviathan</t>
+  </si>
+  <si>
+    <t>eyeDuke</t>
+  </si>
+  <si>
+    <t>Eye of the Duke</t>
+  </si>
+  <si>
+    <t>bosses:dukeSucellus</t>
+  </si>
+  <si>
     <t>virtusRobeTop1</t>
   </si>
   <si>
     <t>Virtus Robe Top</t>
   </si>
   <si>
-    <t>bosses:dukeSucellus</t>
-  </si>
-  <si>
     <t>virtusMask1</t>
   </si>
   <si>
@@ -1802,6 +1835,9 @@
     <t>bosses:whisperer</t>
   </si>
   <si>
+    <t>chromiumIngot3</t>
+  </si>
+  <si>
     <t>ultorRing</t>
   </si>
   <si>
@@ -1823,25 +1859,22 @@
     <t>Butch</t>
   </si>
   <si>
+    <t>chromiumIngot2</t>
+  </si>
+  <si>
     <t>venatorRing</t>
   </si>
   <si>
     <t>Venator Ring</t>
   </si>
   <si>
-    <t>bosses:leviathan</t>
-  </si>
-  <si>
     <t>leviathanPet</t>
   </si>
   <si>
     <t>Lil'viathan</t>
   </si>
   <si>
-    <t>chromiumIngot</t>
-  </si>
-  <si>
-    <t>Chromium Ingot</t>
+    <t>chromiumIngot1</t>
   </si>
   <si>
     <t>wisp</t>
@@ -2510,6 +2543,12 @@
     <t>Demon Tears</t>
   </si>
   <si>
+    <t>leviathanLure</t>
+  </si>
+  <si>
+    <t>Leviathan's Lure</t>
+  </si>
+  <si>
     <t>virtusRobeTop2</t>
   </si>
   <si>
@@ -2531,6 +2570,12 @@
     <t>virtusRobeTop4</t>
   </si>
   <si>
+    <t>sirensStaff</t>
+  </si>
+  <si>
+    <t>Siren's Staff</t>
+  </si>
+  <si>
     <t>virtusMask4</t>
   </si>
   <si>
@@ -2553,6 +2598,9 @@
   </si>
   <si>
     <t>elderNightmareStaff2</t>
+  </si>
+  <si>
+    <t>harmonyNightmareStaff2</t>
   </si>
   <si>
     <t>volatileNightmareStaff2</t>
@@ -11059,15 +11107,15 @@
         <v>257</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>256</v>
@@ -11076,19 +11124,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>256</v>
       </c>
@@ -11096,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>258</v>
@@ -11104,30 +11152,30 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>256</v>
@@ -11136,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>258</v>
@@ -11144,10 +11192,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>256</v>
@@ -11156,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>258</v>
@@ -11164,10 +11212,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>256</v>
@@ -11176,18 +11224,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>256</v>
@@ -11196,10 +11244,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
@@ -11210,53 +11258,53 @@
         <v>284</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>258</v>
@@ -11270,16 +11318,16 @@
         <v>292</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17">
@@ -11290,16 +11338,16 @@
         <v>294</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18">
@@ -11310,56 +11358,56 @@
         <v>296</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21">
@@ -11370,19 +11418,19 @@
         <v>303</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D21" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="4" t="s">
         <v>304</v>
       </c>
@@ -11390,53 +11438,53 @@
         <v>305</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D22" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>258</v>
@@ -11450,13 +11498,13 @@
         <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>258</v>
@@ -11470,16 +11518,16 @@
         <v>314</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -11490,16 +11538,16 @@
         <v>316</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -11510,53 +11558,53 @@
         <v>318</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>258</v>
@@ -11570,13 +11618,13 @@
         <v>325</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>258</v>
@@ -11590,13 +11638,13 @@
         <v>327</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D32" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>258</v>
@@ -11610,16 +11658,16 @@
         <v>329</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D33" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -11630,16 +11678,16 @@
         <v>331</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -11650,13 +11698,13 @@
         <v>333</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D35" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>258</v>
@@ -11664,59 +11712,59 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D36" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D37" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>258</v>
@@ -11736,10 +11784,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -11756,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>258</v>
@@ -11764,11 +11812,11 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="C41" s="4" t="s">
         <v>256</v>
       </c>
@@ -11776,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>258</v>
@@ -11784,11 +11832,11 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="C42" s="4" t="s">
         <v>256</v>
       </c>
@@ -11796,27 +11844,27 @@
         <v>1</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>258</v>
@@ -11836,10 +11884,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -11856,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>258</v>
@@ -11864,11 +11912,11 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="C46" s="4" t="s">
         <v>256</v>
       </c>
@@ -11876,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>258</v>
@@ -11884,11 +11932,11 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="C47" s="4" t="s">
         <v>256</v>
       </c>
@@ -11896,27 +11944,27 @@
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>258</v>
@@ -11936,10 +11984,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -11956,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>258</v>
@@ -11964,11 +12012,11 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="C51" s="4" t="s">
         <v>256</v>
       </c>
@@ -11976,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>258</v>
@@ -11984,11 +12032,11 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="C52" s="4" t="s">
         <v>256</v>
       </c>
@@ -11996,27 +12044,27 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>258</v>
@@ -12036,10 +12084,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -12056,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>258</v>
@@ -12064,11 +12112,11 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="C56" s="4" t="s">
         <v>256</v>
       </c>
@@ -12076,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>258</v>
@@ -12084,11 +12132,11 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
       </c>
@@ -12096,27 +12144,27 @@
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>258</v>
@@ -12136,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>258</v>
@@ -12156,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>258</v>
@@ -12176,10 +12224,10 @@
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -12190,33 +12238,33 @@
         <v>392</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D62" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D63" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>258</v>
@@ -12224,42 +12272,42 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D64" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="D65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -12270,13 +12318,13 @@
         <v>402</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D66" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>258</v>
@@ -12290,13 +12338,13 @@
         <v>404</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D67" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>258</v>
@@ -12310,13 +12358,13 @@
         <v>406</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D68" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>258</v>
@@ -12330,13 +12378,13 @@
         <v>408</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D69" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>258</v>
@@ -12350,13 +12398,13 @@
         <v>410</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D70" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>258</v>
@@ -12370,13 +12418,13 @@
         <v>412</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D71" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>258</v>
@@ -12390,13 +12438,13 @@
         <v>414</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D72" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>258</v>
@@ -12410,13 +12458,13 @@
         <v>416</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D73" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>258</v>
@@ -12430,13 +12478,13 @@
         <v>418</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D74" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>258</v>
@@ -12450,33 +12498,33 @@
         <v>420</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D75" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="C76" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D76" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>258</v>
@@ -12484,19 +12532,19 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D77" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>258</v>
@@ -12504,22 +12552,22 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D78" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="F78" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -12530,13 +12578,13 @@
         <v>429</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D79" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>258</v>
@@ -12550,13 +12598,13 @@
         <v>431</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D80" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>258</v>
@@ -12570,13 +12618,13 @@
         <v>433</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D81" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>258</v>
@@ -12590,13 +12638,13 @@
         <v>435</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D82" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>258</v>
@@ -12610,33 +12658,33 @@
         <v>437</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D83" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D84" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>258</v>
@@ -12644,19 +12692,19 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="C85" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D85" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>258</v>
@@ -12664,22 +12712,22 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D86" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="F86" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -12690,13 +12738,13 @@
         <v>446</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D87" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>258</v>
@@ -12710,13 +12758,13 @@
         <v>448</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D88" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>258</v>
@@ -12730,13 +12778,13 @@
         <v>450</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D89" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>258</v>
@@ -12750,13 +12798,13 @@
         <v>452</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D90" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>258</v>
@@ -12770,13 +12818,13 @@
         <v>454</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="D91" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>258</v>
@@ -12784,19 +12832,19 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="D92" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>258</v>
@@ -12804,19 +12852,19 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="C93" s="4" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="D93" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>258</v>
@@ -12824,19 +12872,19 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="C94" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D94" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>258</v>
@@ -12856,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>258</v>
@@ -12876,7 +12924,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>258</v>
@@ -12896,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>258</v>
@@ -12916,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>258</v>
@@ -12936,10 +12984,10 @@
         <v>1</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -12956,10 +13004,10 @@
         <v>1</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -12976,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>258</v>
@@ -12984,11 +13032,11 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="C102" s="4" t="s">
         <v>256</v>
       </c>
@@ -12996,18 +13044,18 @@
         <v>1</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>256</v>
@@ -13016,27 +13064,27 @@
         <v>1</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D104" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>258</v>
@@ -13044,11 +13092,11 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="C105" s="4" t="s">
         <v>256</v>
       </c>
@@ -13056,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>258</v>
@@ -13064,10 +13112,10 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>256</v>
@@ -13076,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>258</v>
@@ -13084,10 +13132,10 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>256</v>
@@ -13096,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>258</v>
@@ -13104,7 +13152,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>489</v>
@@ -13116,18 +13164,18 @@
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>256</v>
@@ -13136,15 +13184,15 @@
         <v>1</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>492</v>
@@ -13156,10 +13204,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -13176,10 +13224,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -13187,7 +13235,7 @@
         <v>496</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>256</v>
@@ -13196,30 +13244,30 @@
         <v>1</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D113" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D113" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>493</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -13236,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>258</v>
@@ -13256,7 +13304,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>258</v>
@@ -13276,10 +13324,10 @@
         <v>1</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -13296,19 +13344,19 @@
         <v>1</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>510</v>
-      </c>
       <c r="C118" s="4" t="s">
         <v>256</v>
       </c>
@@ -13316,19 +13364,19 @@
         <v>1</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>512</v>
-      </c>
       <c r="C119" s="4" t="s">
         <v>256</v>
       </c>
@@ -13336,7 +13384,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>261</v>
@@ -13344,22 +13392,22 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C120" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D120" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="F120" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
@@ -13376,10 +13424,10 @@
         <v>1</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -13396,10 +13444,10 @@
         <v>1</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -13416,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>258</v>
@@ -13436,7 +13484,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>258</v>
@@ -13456,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>258</v>
@@ -13476,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>258</v>
@@ -13496,19 +13544,19 @@
         <v>1</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="C128" s="4" t="s">
         <v>256</v>
       </c>
@@ -13516,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>258</v>
@@ -13524,11 +13572,11 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="C129" s="4" t="s">
         <v>256</v>
       </c>
@@ -13536,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>258</v>
@@ -13544,22 +13592,22 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D130" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D130" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="F130" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
@@ -13576,7 +13624,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>258</v>
@@ -13590,53 +13638,53 @@
         <v>539</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D132" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>542</v>
-      </c>
       <c r="C133" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D133" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>544</v>
-      </c>
       <c r="C134" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D134" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>258</v>
@@ -13644,22 +13692,22 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D135" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D135" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="F135" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -13670,13 +13718,13 @@
         <v>548</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D136" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>258</v>
@@ -13690,13 +13738,13 @@
         <v>550</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D137" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>258</v>
@@ -13710,16 +13758,16 @@
         <v>552</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D138" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
@@ -13730,33 +13778,33 @@
         <v>554</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D139" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>557</v>
-      </c>
       <c r="C140" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D140" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>258</v>
@@ -13764,62 +13812,62 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="C141" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D141" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="C142" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D142" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D143" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D143" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>563</v>
-      </c>
       <c r="F143" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -13830,13 +13878,13 @@
         <v>565</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D144" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>258</v>
@@ -13847,48 +13895,48 @@
         <v>566</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D145" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D146" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="F146" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>572</v>
-      </c>
       <c r="C147" s="4" t="s">
         <v>256</v>
       </c>
@@ -13896,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>258</v>
@@ -13904,11 +13952,11 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>574</v>
-      </c>
       <c r="C148" s="4" t="s">
         <v>256</v>
       </c>
@@ -13916,30 +13964,30 @@
         <v>1</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C149" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D149" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D149" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="F149" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
@@ -13956,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>258</v>
@@ -13976,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>258</v>
@@ -13984,11 +14032,11 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>583</v>
-      </c>
       <c r="C152" s="4" t="s">
         <v>256</v>
       </c>
@@ -13996,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>258</v>
@@ -14004,41 +14052,41 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C153" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D153" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D153" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="4" t="s">
+      <c r="B154" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="C154" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D154" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D154" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="8" t="s">
         <v>258</v>
       </c>
     </row>
@@ -14056,27 +14104,27 @@
         <v>1</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D156" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>258</v>
@@ -14096,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>258</v>
@@ -14104,11 +14152,11 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="C158" s="4" t="s">
         <v>256</v>
       </c>
@@ -14116,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>258</v>
@@ -14124,11 +14172,11 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="C159" s="4" t="s">
         <v>256</v>
       </c>
@@ -14136,19 +14184,19 @@
         <v>1</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="C160" s="4" t="s">
         <v>256</v>
       </c>
@@ -14156,79 +14204,79 @@
         <v>1</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="F161" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D161" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D162" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F162" s="4" t="s">
+      <c r="B162" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F162" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D163" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D163" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>592</v>
-      </c>
       <c r="F163" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>610</v>
-      </c>
       <c r="C164" s="4" t="s">
         <v>256</v>
       </c>
@@ -14236,58 +14284,58 @@
         <v>1</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D165" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D165" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D166" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="F166" s="4" t="s">
+      <c r="B166" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D166" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F166" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>256</v>
@@ -14296,7 +14344,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>258</v>
@@ -14304,39 +14352,39 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>72</v>
+        <v>615</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D168" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D169" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>258</v>
@@ -14344,79 +14392,79 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>75</v>
+        <v>618</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D170" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D171" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="4" t="s">
-        <v>78</v>
+        <v>623</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D172" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D173" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>258</v>
@@ -14424,73 +14472,73 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="D174" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>633</v>
+        <v>72</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D175" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D176" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>636</v>
+        <v>75</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="D177" s="4" t="b">
         <v>1</v>
@@ -14499,47 +14547,47 @@
         <v>635</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>623</v>
-      </c>
       <c r="C178" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D178" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D179" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D179" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>638</v>
-      </c>
       <c r="F179" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
@@ -14550,13 +14598,13 @@
         <v>641</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D180" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>258</v>
@@ -14567,19 +14615,19 @@
         <v>642</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D181" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D181" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>635</v>
-      </c>
       <c r="F181" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
@@ -14587,16 +14635,16 @@
         <v>644</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D182" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>258</v>
@@ -14604,22 +14652,22 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D183" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D183" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>620</v>
-      </c>
       <c r="F183" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
@@ -14627,16 +14675,16 @@
         <v>647</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D184" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>258</v>
@@ -14647,36 +14695,36 @@
         <v>648</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D185" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D186" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D186" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>258</v>
@@ -14684,19 +14732,19 @@
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D187" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>258</v>
@@ -14704,19 +14752,19 @@
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>533</v>
+        <v>654</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D188" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>258</v>
@@ -14724,19 +14772,19 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D189" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>258</v>
@@ -14744,19 +14792,19 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="4" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>533</v>
+        <v>652</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D190" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>258</v>
@@ -14764,19 +14812,19 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D191" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>258</v>
@@ -14784,19 +14832,19 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="C192" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D192" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>258</v>
@@ -14804,19 +14852,19 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D193" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>258</v>
@@ -14824,13 +14872,13 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>533</v>
+        <v>662</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D194" s="4" t="b">
         <v>1</v>
@@ -14844,19 +14892,19 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D195" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>258</v>
@@ -14864,19 +14912,19 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>533</v>
+        <v>662</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D196" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>258</v>
@@ -14884,19 +14932,19 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D197" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>258</v>
@@ -14904,19 +14952,19 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D198" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>258</v>
@@ -14924,39 +14972,39 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>663</v>
+        <v>539</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D199" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>533</v>
+        <v>662</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D200" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>258</v>
@@ -14964,19 +15012,19 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D201" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>258</v>
@@ -14984,39 +15032,39 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="4" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D202" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>671</v>
+        <v>539</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D203" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>258</v>
@@ -15027,16 +15075,16 @@
         <v>672</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D204" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>258</v>
@@ -15044,39 +15092,39 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="C205" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D205" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D205" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>676</v>
-      </c>
       <c r="F205" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>671</v>
+        <v>539</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D206" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>258</v>
@@ -15084,19 +15132,19 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D207" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>258</v>
@@ -15104,13 +15152,13 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="C208" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D208" s="4" t="b">
         <v>1</v>
@@ -15119,7 +15167,7 @@
         <v>680</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
@@ -15127,10 +15175,10 @@
         <v>681</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D209" s="4" t="b">
         <v>1</v>
@@ -15144,13 +15192,13 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D210" s="4" t="b">
         <v>1</v>
@@ -15164,39 +15212,39 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>256</v>
+        <v>630</v>
       </c>
       <c r="D211" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D212" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D212" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>685</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>258</v>
@@ -15204,19 +15252,19 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>256</v>
+        <v>630</v>
       </c>
       <c r="D213" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>258</v>
@@ -15227,19 +15275,19 @@
         <v>690</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D214" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D214" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="F214" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
@@ -15247,36 +15295,36 @@
         <v>692</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>256</v>
+        <v>630</v>
       </c>
       <c r="D215" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>256</v>
+        <v>630</v>
       </c>
       <c r="D216" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>258</v>
@@ -15284,10 +15332,10 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>256</v>
@@ -15299,15 +15347,15 @@
         <v>696</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>256</v>
@@ -15324,10 +15372,10 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>256</v>
@@ -15344,10 +15392,10 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>256</v>
@@ -15364,10 +15412,10 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>256</v>
@@ -15379,24 +15427,24 @@
         <v>696</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D222" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D222" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>258</v>
@@ -15404,11 +15452,11 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="C223" s="4" t="s">
         <v>256</v>
       </c>
@@ -15416,7 +15464,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>258</v>
@@ -15424,11 +15472,11 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>712</v>
-      </c>
       <c r="C224" s="4" t="s">
         <v>256</v>
       </c>
@@ -15436,7 +15484,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>258</v>
@@ -15444,11 +15492,11 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="C225" s="4" t="s">
         <v>256</v>
       </c>
@@ -15456,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>258</v>
@@ -15464,11 +15512,11 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>716</v>
-      </c>
       <c r="C226" s="4" t="s">
         <v>256</v>
       </c>
@@ -15476,18 +15524,18 @@
         <v>1</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>256</v>
@@ -15496,18 +15544,18 @@
         <v>1</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>256</v>
@@ -15516,18 +15564,18 @@
         <v>1</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>256</v>
@@ -15536,7 +15584,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>258</v>
@@ -15544,10 +15592,10 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>256</v>
@@ -15556,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>258</v>
@@ -15564,10 +15612,10 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>256</v>
@@ -15576,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>258</v>
@@ -15584,10 +15632,10 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>256</v>
@@ -15596,18 +15644,18 @@
         <v>1</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>256</v>
@@ -15619,15 +15667,15 @@
         <v>731</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>256</v>
@@ -15636,18 +15684,18 @@
         <v>1</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>256</v>
@@ -15656,7 +15704,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>258</v>
@@ -15664,10 +15712,10 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>256</v>
@@ -15676,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>258</v>
@@ -15684,10 +15732,10 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>256</v>
@@ -15696,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>258</v>
@@ -15704,10 +15752,10 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>256</v>
@@ -15716,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>258</v>
@@ -15724,10 +15772,10 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>256</v>
@@ -15736,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>258</v>
@@ -15744,19 +15792,19 @@
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D240" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D240" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>738</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>258</v>
@@ -15764,11 +15812,11 @@
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>752</v>
-      </c>
       <c r="C241" s="4" t="s">
         <v>256</v>
       </c>
@@ -15776,7 +15824,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>258</v>
@@ -15784,11 +15832,11 @@
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>754</v>
-      </c>
       <c r="C242" s="4" t="s">
         <v>256</v>
       </c>
@@ -15796,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>258</v>
@@ -15804,11 +15852,11 @@
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>756</v>
-      </c>
       <c r="C243" s="4" t="s">
         <v>256</v>
       </c>
@@ -15816,7 +15864,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>258</v>
@@ -15824,11 +15872,11 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>758</v>
-      </c>
       <c r="C244" s="4" t="s">
         <v>256</v>
       </c>
@@ -15836,7 +15884,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>258</v>
@@ -15844,11 +15892,11 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>760</v>
-      </c>
       <c r="C245" s="4" t="s">
         <v>256</v>
       </c>
@@ -15856,7 +15904,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>258</v>
@@ -15864,11 +15912,11 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>762</v>
-      </c>
       <c r="C246" s="4" t="s">
         <v>256</v>
       </c>
@@ -15876,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>258</v>
@@ -15884,11 +15932,11 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="C247" s="4" t="s">
         <v>256</v>
       </c>
@@ -15896,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>258</v>
@@ -15904,11 +15952,11 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>766</v>
-      </c>
       <c r="C248" s="4" t="s">
         <v>256</v>
       </c>
@@ -15916,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>258</v>
@@ -15924,11 +15972,11 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>768</v>
-      </c>
       <c r="C249" s="4" t="s">
         <v>256</v>
       </c>
@@ -15936,7 +15984,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>258</v>
@@ -15944,11 +15992,11 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>770</v>
-      </c>
       <c r="C250" s="4" t="s">
         <v>256</v>
       </c>
@@ -15956,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>258</v>
@@ -15964,11 +16012,11 @@
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>772</v>
-      </c>
       <c r="C251" s="4" t="s">
         <v>256</v>
       </c>
@@ -15976,7 +16024,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>258</v>
@@ -15984,11 +16032,11 @@
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>774</v>
-      </c>
       <c r="C252" s="4" t="s">
         <v>256</v>
       </c>
@@ -15996,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>258</v>
@@ -16004,11 +16052,11 @@
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>776</v>
-      </c>
       <c r="C253" s="4" t="s">
         <v>256</v>
       </c>
@@ -16016,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>258</v>
@@ -16024,11 +16072,11 @@
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>778</v>
-      </c>
       <c r="C254" s="4" t="s">
         <v>256</v>
       </c>
@@ -16036,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>258</v>
@@ -16044,11 +16092,11 @@
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>780</v>
-      </c>
       <c r="C255" s="4" t="s">
         <v>256</v>
       </c>
@@ -16056,7 +16104,7 @@
         <v>1</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>258</v>
@@ -16064,11 +16112,11 @@
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>782</v>
-      </c>
       <c r="C256" s="4" t="s">
         <v>256</v>
       </c>
@@ -16076,7 +16124,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>258</v>
@@ -16084,11 +16132,11 @@
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>784</v>
-      </c>
       <c r="C257" s="4" t="s">
         <v>256</v>
       </c>
@@ -16096,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>258</v>
@@ -16104,11 +16152,11 @@
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>786</v>
-      </c>
       <c r="C258" s="4" t="s">
         <v>256</v>
       </c>
@@ -16116,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>258</v>
@@ -16124,11 +16172,11 @@
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>788</v>
-      </c>
       <c r="C259" s="4" t="s">
         <v>256</v>
       </c>
@@ -16136,19 +16184,19 @@
         <v>1</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>790</v>
-      </c>
       <c r="C260" s="4" t="s">
         <v>256</v>
       </c>
@@ -16156,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>258</v>
@@ -16164,10 +16212,10 @@
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>256</v>
@@ -16176,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>258</v>
@@ -16184,10 +16232,10 @@
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>256</v>
@@ -16196,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>258</v>
@@ -16204,10 +16252,10 @@
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>256</v>
@@ -16216,18 +16264,18 @@
         <v>1</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>256</v>
@@ -16236,18 +16284,18 @@
         <v>1</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>791</v>
+        <v>728</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>256</v>
@@ -16256,39 +16304,39 @@
         <v>1</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D266" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D266" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>723</v>
-      </c>
       <c r="F266" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>805</v>
-      </c>
       <c r="C267" s="4" t="s">
         <v>256</v>
       </c>
@@ -16296,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>258</v>
@@ -16304,10 +16352,10 @@
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>256</v>
@@ -16316,7 +16364,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>258</v>
@@ -16324,10 +16372,10 @@
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>256</v>
@@ -16336,18 +16384,18 @@
         <v>1</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>256</v>
@@ -16356,18 +16404,18 @@
         <v>1</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>256</v>
@@ -16376,18 +16424,18 @@
         <v>1</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>806</v>
+        <v>734</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>256</v>
@@ -16396,27 +16444,27 @@
         <v>1</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>806</v>
+        <v>734</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D273" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D273" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>258</v>
@@ -16424,11 +16472,11 @@
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="C274" s="4" t="s">
         <v>256</v>
       </c>
@@ -16436,19 +16484,19 @@
         <v>1</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>822</v>
-      </c>
       <c r="C275" s="4" t="s">
         <v>256</v>
       </c>
@@ -16456,7 +16504,7 @@
         <v>1</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>258</v>
@@ -16464,11 +16512,11 @@
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>824</v>
-      </c>
       <c r="C276" s="4" t="s">
         <v>256</v>
       </c>
@@ -16476,7 +16524,7 @@
         <v>1</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>258</v>
@@ -16484,11 +16532,11 @@
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>826</v>
-      </c>
       <c r="C277" s="4" t="s">
         <v>256</v>
       </c>
@@ -16496,158 +16544,158 @@
         <v>1</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="C278" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D278" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D278" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="5" t="s">
+      <c r="B279" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D279" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="F279" s="6" t="s">
+      <c r="C279" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D279" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D280" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="F280" s="6" t="s">
-        <v>258</v>
+      <c r="B280" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D280" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D281" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="F281" s="6" t="s">
+      <c r="A281" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D281" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F281" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D282" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="F282" s="6" t="s">
+      <c r="A282" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D282" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F282" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D283" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="F283" s="6" t="s">
+      <c r="A283" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D283" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F283" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D284" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="F284" s="6" t="s">
-        <v>258</v>
+      <c r="A284" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D284" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>580</v>
+        <v>840</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>841</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>256</v>
@@ -16656,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F285" s="6" t="s">
         <v>258</v>
@@ -16664,10 +16712,10 @@
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="5" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>256</v>
@@ -16676,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F286" s="6" t="s">
         <v>258</v>
@@ -16684,10 +16732,10 @@
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="5" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>256</v>
@@ -16696,178 +16744,178 @@
         <v>1</v>
       </c>
       <c r="E287" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D288" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="F287" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D288" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D289" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F289" s="4" t="s">
+      <c r="C289" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D289" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F289" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D290" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E290" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F290" s="4" t="s">
+      <c r="A290" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D290" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F290" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D291" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F291" s="4" t="s">
+      <c r="A291" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D291" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F291" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D292" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E292" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F292" s="4" t="s">
+      <c r="A292" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D292" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F292" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D293" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F293" s="4" t="s">
+      <c r="A293" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D293" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F293" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D294" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E294" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F294" s="4" t="s">
+      <c r="A294" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D294" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F294" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D295" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F295" s="4" t="s">
+      <c r="A295" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D295" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F295" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="4" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>256</v>
@@ -16876,18 +16924,18 @@
         <v>1</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="4" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>256</v>
@@ -16896,47 +16944,47 @@
         <v>1</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="4" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D298" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="4" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D299" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>258</v>
@@ -16944,19 +16992,19 @@
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="4" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D300" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>258</v>
@@ -16964,19 +17012,19 @@
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="4" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D301" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>258</v>
@@ -16984,19 +17032,19 @@
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="4" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D302" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>258</v>
@@ -17004,19 +17052,19 @@
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="4" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D303" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>258</v>
@@ -17024,79 +17072,79 @@
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="4" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D304" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="4" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="D305" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>848</v>
+        <v>482</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="4" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D306" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="4" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D307" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>258</v>
@@ -17104,19 +17152,19 @@
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="4" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D308" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>258</v>
@@ -17124,19 +17172,19 @@
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="4" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D309" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>258</v>
@@ -17144,19 +17192,19 @@
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="4" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D310" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>258</v>
@@ -17164,19 +17212,19 @@
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="4" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>862</v>
+        <v>410</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D311" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>258</v>
@@ -17184,19 +17232,19 @@
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="4" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D312" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E312" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D312" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>258</v>
@@ -17204,39 +17252,39 @@
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="4" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D313" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D314" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>258</v>
@@ -17244,19 +17292,19 @@
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D315" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>258</v>
@@ -17264,19 +17312,19 @@
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D316" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>258</v>
@@ -17284,19 +17332,19 @@
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D317" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>258</v>
@@ -17304,19 +17352,19 @@
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="4" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D318" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>258</v>
@@ -17324,19 +17372,19 @@
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="4" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>433</v>
+        <v>878</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D319" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>258</v>
@@ -17344,19 +17392,19 @@
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="4" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>435</v>
+        <v>880</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D320" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>258</v>
@@ -17364,39 +17412,39 @@
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="4" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>875</v>
+        <v>426</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D321" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="4" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>877</v>
+        <v>429</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D322" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="F322" s="4" t="s">
         <v>258</v>
@@ -17404,32 +17452,184 @@
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>879</v>
+        <v>431</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D323" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D324" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D325" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D326" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D327" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D328" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D329" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D330" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D331" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="332" ht="15.75" customHeight="1"/>
     <row r="333" ht="15.75" customHeight="1"/>
     <row r="334" ht="15.75" customHeight="1"/>
@@ -18051,6 +18251,14 @@
     <row r="950" ht="15.75" customHeight="1"/>
     <row r="951" ht="15.75" customHeight="1"/>
     <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
@@ -18087,7 +18295,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -18113,13 +18321,13 @@
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="D2" s="4" t="b">
         <v>1</v>
@@ -18148,10 +18356,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -18180,10 +18388,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -18212,10 +18420,10 @@
         <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -18241,13 +18449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -18273,13 +18481,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>

--- a/server/utils/osrs_content_manager.xlsx
+++ b/server/utils/osrs_content_manager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarrett/personal_projects/osrs-bingo/server/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE46EFB-AE86-1B4F-A87F-8B26CAC6F657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FBD77-2194-2A4B-9CDF-23F79939C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bosses" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="913">
   <si>
     <t>ID</t>
   </si>
@@ -2763,6 +2763,12 @@
   </si>
   <si>
     <t>red</t>
+  </si>
+  <si>
+    <t>bryophyta</t>
+  </si>
+  <si>
+    <t>Bryophyta</t>
   </si>
 </sst>
 </file>
@@ -3084,11 +3090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5648,22 +5654,74 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>50</v>
+      </c>
+      <c r="L49" s="2">
+        <v>75</v>
+      </c>
+      <c r="M49" s="2">
+        <v>75</v>
+      </c>
+      <c r="N49" s="2">
+        <v>100</v>
+      </c>
+      <c r="O49" s="2">
+        <v>100</v>
+      </c>
+      <c r="P49" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10965,8 +11023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="U143" sqref="U143"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
